--- a/AFP_Group2/Resources/Misconceptions.xlsx
+++ b/AFP_Group2/Resources/Misconceptions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Misconception</t>
   </si>
@@ -19,6 +19,9 @@
     <t>Quote / Fact</t>
   </si>
   <si>
+    <t>Highlight</t>
+  </si>
+  <si>
     <t>Citation</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>"When I staterd workin on Computer Science I realized how creative, social and fun it was, how you could build things and create things that people all over the world could use. if you could change technology, you could change the world."</t>
   </si>
   <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
     <t>Susan Wojcicki</t>
   </si>
   <si>
@@ -115,7 +121,7 @@
     <t>video6</t>
   </si>
   <si>
-    <t>Most people work in IT are male</t>
+    <t>Most people that work in IT are male</t>
   </si>
   <si>
     <t>“Recognize and embrace your uniqueness...Being a Black woman, being a woman in general, on a team of all men, means that you are going to have a unique voice. It’s important to embrace that.”</t>
@@ -260,7 +266,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +279,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -280,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,6 +310,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -522,9 +537,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="33.88"/>
-    <col customWidth="1" min="3" max="4" width="25.63"/>
-    <col customWidth="1" min="5" max="5" width="15.63"/>
+    <col customWidth="1" min="2" max="3" width="33.88"/>
+    <col customWidth="1" min="4" max="5" width="25.63"/>
+    <col customWidth="1" min="6" max="6" width="15.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,278 +555,297 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
         <v>18</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="4" t="s">
         <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/AFP_Group2/Resources/Misconceptions.xlsx
+++ b/AFP_Group2/Resources/Misconceptions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>Misconception</t>
   </si>
@@ -31,13 +31,19 @@
     <t>Video file name</t>
   </si>
   <si>
+    <t>BackgroundColor</t>
+  </si>
+  <si>
+    <t>HighlightColor</t>
+  </si>
+  <si>
     <t>IT Careers are not creative</t>
   </si>
   <si>
-    <t>"When I staterd workin on Computer Science I realized how creative, social and fun it was, how you could build things and create things that people all over the world could use. if you could change technology, you could change the world."</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
+    <t>"When I staterd workin on Computer Science I realized how creative, social and fun it was, how you could build things and create things that people all over the world could use. If you could change technology, you could change the world."</t>
+  </si>
+  <si>
+    <t>If you could change technology, you could change the world.</t>
   </si>
   <si>
     <t>Susan Wojcicki</t>
@@ -49,12 +55,21 @@
     <t>video1</t>
   </si>
   <si>
+    <t>yellowish</t>
+  </si>
+  <si>
+    <t>redish</t>
+  </si>
+  <si>
     <t>Men are better than women in sciences</t>
   </si>
   <si>
     <t>"Certain people – men, of course – discouraged me, saying [science] was not a good career for women. That pushed me even more to persevere."</t>
   </si>
   <si>
+    <t>That pushed me even more to persevere.</t>
+  </si>
+  <si>
     <t>Francoise Barre</t>
   </si>
   <si>
@@ -67,7 +82,10 @@
     <t>Women often fail in IT careers</t>
   </si>
   <si>
-    <t>"You should never view your challenges as a disadvantage. Instead, it’s important for you to understand that your experience facing and overcoming adversity is actually one of your biggest advantages"</t>
+    <t>"You should never view your challenges as a disadvantage. Instead, it’s important for you to understand that your experience facing and overcoming adversity is actually one of your biggest advantages."</t>
+  </si>
+  <si>
+    <t>biggest advantages</t>
   </si>
   <si>
     <t>Michelle Obama</t>
@@ -79,7 +97,10 @@
     <t>Women aren't smart enough for a career in IT</t>
   </si>
   <si>
-    <t xml:space="preserve">"I think it’s very important to get more women into computing. My slogan is: computing is too important to be left to men" </t>
+    <t xml:space="preserve">"I think it’s very important to get more women into computing. My slogan is: computing is too important to be left to men." </t>
+  </si>
+  <si>
+    <t>computing is too important to be left to men.</t>
   </si>
   <si>
     <t>Karen Sparck Jones</t>
@@ -97,6 +118,9 @@
     <t>“That brain of mine is something more than merely mortal; as time will show.”</t>
   </si>
   <si>
+    <t>something more than merely mortal</t>
+  </si>
+  <si>
     <t>Ada Lovelace</t>
   </si>
   <si>
@@ -112,6 +136,9 @@
     <t>“Women no longer have an ‘if I can’ mindset. Now it’s more about ‘how I can’— be in tech, start something in tech, fund something in tech. That shift is exciting! And it happened because we created a network where we show, daily, that women are innovating.”</t>
   </si>
   <si>
+    <t>Now it’s more about ‘how I can’</t>
+  </si>
+  <si>
     <t>Shaherose Charania</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t>"Imagine what our world would look like if every young person, regardless of gender, ethnicity, or background, felt inspired to enter the tech field. The future belongs to those who dare to dream, and in tech, your dreams can shape the world."</t>
   </si>
   <si>
+    <t xml:space="preserve">The future belongs to those who dare to dream, </t>
+  </si>
+  <si>
     <t>Melinda Gates</t>
   </si>
   <si>
@@ -157,6 +187,9 @@
     <t>"Companies with inclusive cultures tend to be more successful. A study by McKinsey found that organizations with diverse leadership are 33% more likely to outperform their peers in profitability."</t>
   </si>
   <si>
+    <t>diverse leadership</t>
+  </si>
+  <si>
     <t>Diversity wins by McKinsey &amp; Company</t>
   </si>
   <si>
@@ -169,6 +202,9 @@
     <t>“Life doesn’t always present you with the perfect opportunity at the perfect time. Opportunities come when you least expect them, or when you’re not ready for them. Rarely are opportunities presented to you in the perfect way, in a nice little box with a yellow bow on top. Opportunities, the good ones, they’re messy and confusing and hard to recognize. They’re risky. They challenge you.”</t>
   </si>
   <si>
+    <t>Opportunities come when you least expect them,</t>
+  </si>
+  <si>
     <t>video10</t>
   </si>
   <si>
@@ -178,6 +214,9 @@
     <t>“The word ‘female,’ when inserted in front of something, is always with a note of surprise. Female COO, female pilot, female surgeon — as if the gender implies surprise ... One day there won’t be female leaders. There will just be leaders.”</t>
   </si>
   <si>
+    <t>One day there won’t be female leaders. There will just be leaders.</t>
+  </si>
+  <si>
     <t>Sheryl Sandberg</t>
   </si>
   <si>
@@ -193,6 +232,9 @@
     <t>"It's not that women don't want to be engineers, it's that they've been told it's not for them. We have to tell them it is for them, and we have to show them that it's for them."</t>
   </si>
   <si>
+    <t>We have to tell them it is for them,</t>
+  </si>
+  <si>
     <t>Megan Smith</t>
   </si>
   <si>
@@ -208,6 +250,9 @@
     <t>“It’s so easy for us to get caught up in negative patterns, versus seeing what positive change you can make. Especially for women and minorities, we need to learn to see challenges as stepping stones instead of hurdles. They really can bring you experience and closer to your goals.”</t>
   </si>
   <si>
+    <t>we need to learn to see challenges as stepping stones instead of hurdles.</t>
+  </si>
+  <si>
     <t>Rebecca Garcia</t>
   </si>
   <si>
@@ -221,6 +266,9 @@
   </si>
   <si>
     <t>“I didn’t learn to be quiet when I had an opinion. The reason they knew who I was is because I told them.”</t>
+  </si>
+  <si>
+    <t>I didn’t learn to be quiet when I had an opinion.</t>
   </si>
   <si>
     <t>Ursula Burn</t>
@@ -540,6 +588,8 @@
     <col customWidth="1" min="2" max="3" width="33.88"/>
     <col customWidth="1" min="4" max="5" width="25.63"/>
     <col customWidth="1" min="6" max="6" width="15.63"/>
+    <col customWidth="1" min="7" max="7" width="19.13"/>
+    <col customWidth="1" min="8" max="8" width="25.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,257 +611,369 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">

--- a/AFP_Group2/Resources/Misconceptions.xlsx
+++ b/AFP_Group2/Resources/Misconceptions.xlsx
@@ -10,8 +10,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A6">
+      <text>
+        <t xml:space="preserve">han looking for the video
+	-Manuela Peñuela</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
   <si>
     <t>Misconception</t>
   </si>
@@ -37,6 +53,9 @@
     <t>HighlightColor</t>
   </si>
   <si>
+    <t>VideoLink</t>
+  </si>
+  <si>
     <t>IT Careers are not creative</t>
   </si>
   <si>
@@ -61,6 +80,9 @@
     <t>redish</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/r1rcb2fh.mov</t>
+  </si>
+  <si>
     <t>Men are better than women in sciences</t>
   </si>
   <si>
@@ -79,6 +101,9 @@
     <t>video2</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/bxs5vxop.mov</t>
+  </si>
+  <si>
     <t>Women often fail in IT careers</t>
   </si>
   <si>
@@ -94,6 +119,9 @@
     <t>video3</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/jfb31hc4.mov</t>
+  </si>
+  <si>
     <t>Women aren't smart enough for a career in IT</t>
   </si>
   <si>
@@ -112,6 +140,9 @@
     <t>video4</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/t56jw9v.mov</t>
+  </si>
+  <si>
     <t>Women aren't good at coding</t>
   </si>
   <si>
@@ -130,6 +161,9 @@
     <t>video5</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/qd09o93s.mov</t>
+  </si>
+  <si>
     <t>Women aren't likely to get leadership in the IT industry</t>
   </si>
   <si>
@@ -148,6 +182,9 @@
     <t>video6</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/ypyvkg83.mov</t>
+  </si>
+  <si>
     <t>Most people that work in IT are male</t>
   </si>
   <si>
@@ -163,6 +200,9 @@
     <t>video7</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/vd1n9b52.mov</t>
+  </si>
+  <si>
     <t>Women aren't taken seriously in the IT industry</t>
   </si>
   <si>
@@ -181,6 +221,9 @@
     <t>video8</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/3aet286y.mov</t>
+  </si>
+  <si>
     <t>Workplace culture can feel excluding for women</t>
   </si>
   <si>
@@ -196,6 +239,9 @@
     <t>video9</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/p37bwlb6.mov</t>
+  </si>
+  <si>
     <t>Women get less opportunities than men</t>
   </si>
   <si>
@@ -208,6 +254,9 @@
     <t>video10</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/hywn16em.mov</t>
+  </si>
+  <si>
     <t>There aren't many female role models in the IT industry</t>
   </si>
   <si>
@@ -226,6 +275,9 @@
     <t>video11</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/jsbxi9h.mov</t>
+  </si>
+  <si>
     <t>Women are not good at IT</t>
   </si>
   <si>
@@ -244,7 +296,10 @@
     <t>video12</t>
   </si>
   <si>
-    <t>Women are held up to different standards than men</t>
+    <t>https://pomf2.lain.la/f/6dzw75oc.mov</t>
+  </si>
+  <si>
+    <t>IT is more challenging for women</t>
   </si>
   <si>
     <t>“It’s so easy for us to get caught up in negative patterns, versus seeing what positive change you can make. Especially for women and minorities, we need to learn to see challenges as stepping stones instead of hurdles. They really can bring you experience and closer to your goals.”</t>
@@ -262,6 +317,9 @@
     <t>video13</t>
   </si>
   <si>
+    <t>https://pomf2.lain.la/f/j33v6927.mov</t>
+  </si>
+  <si>
     <t>Women frequently experience being interrupted or talked over in professional settings</t>
   </si>
   <si>
@@ -278,13 +336,16 @@
   </si>
   <si>
     <t>video14</t>
+  </si>
+  <si>
+    <t>https://pomf2.lain.la/f/kjmpcmoy.mov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -310,16 +371,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF5C5C5C"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF5C5C5C"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF5C5C5C"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
+        <bgColor rgb="FFF7F7F7"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -340,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -350,16 +440,31 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -617,399 +722,461 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
+      <c r="E11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
+        <v>90</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8"/>
+      <c r="A16" s="13"/>
     </row>
     <row r="17">
-      <c r="A17" s="8"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18">
-      <c r="A18" s="8"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19">
-      <c r="A19" s="8"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20">
-      <c r="A20" s="8"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="8"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="8"/>
+      <c r="A22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="8"/>
+      <c r="A23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="8"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="13"/>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
+      <c r="A26" s="13"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="I2"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="I4"/>
+    <hyperlink r:id="rId5" ref="I5"/>
+    <hyperlink r:id="rId6" ref="I6"/>
+    <hyperlink r:id="rId7" ref="I7"/>
+    <hyperlink r:id="rId8" ref="I8"/>
+    <hyperlink r:id="rId9" ref="I9"/>
+    <hyperlink r:id="rId10" ref="I10"/>
+    <hyperlink r:id="rId11" ref="I11"/>
+    <hyperlink r:id="rId12" ref="I12"/>
+    <hyperlink r:id="rId13" ref="I13"/>
+    <hyperlink r:id="rId14" ref="I14"/>
+    <hyperlink r:id="rId15" ref="I15"/>
+  </hyperlinks>
+  <drawing r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>